--- a/operationFolder/xxxx/03_CPD-LAH-8B3.907_Modul-EMV_v2_11-2019.xlsx
+++ b/operationFolder/xxxx/03_CPD-LAH-8B3.907_Modul-EMV_v2_11-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jj7sd4\Downloads\startCenterProjects\Audi CPD\Translated_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jj7sd4\IdeaProjects\UpdateMalfunApp\operationFolder\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LHfU3E5OUADlBG6VHXNIpdnRDw7i9RPIxJvij/n2sX/1ARn3VxMClmO04kKxPlGs76FXb36ZvWjbgK1/LKRPpg==" workbookSaltValue="+ZaTdDbIJbhD+TqX/KaXPg==" workbookSpinCount="100000" lockStructure="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="513">
   <si>
     <r>
       <t>1 Vorwort</t>
@@ -2278,6 +2278,9 @@
   </si>
   <si>
     <t>Requirements Review Status - 03</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -6698,7 +6701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6723,7 +6726,9 @@
         <v>328</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="C1" s="50" t="s">
+        <v>512</v>
+      </c>
       <c r="D1" s="50" t="s">
         <v>329</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>2 General EMC requirements</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -7903,7 +7908,7 @@
         <v>2.1 Description of the component/overall system</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>3 System specific EMC requirements</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -8051,7 +8056,7 @@
         <v>3.1 Special requirements due to problems already known Lessons Learned</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -8088,7 +8093,7 @@
         <v>3.1 Special requirements due to problems already known Lessons Learned</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -8158,7 +8163,7 @@
         <v>3.2 Classification of functional influences</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="78" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -8195,7 +8200,7 @@
         <v>3.3 Interference emission from supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>3.3 Interference emission from supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="78" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8269,7 +8274,7 @@
         <v>3.3 Interference emission from supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="78" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8306,7 +8311,7 @@
         <v>3.3 Interference emission from supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="78" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>3.4 Interference immunity of supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="78" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>3.4 Interference immunity of supply line inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="78" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>3.5 Interference immunity of sensor cable inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="78" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8520,7 +8525,7 @@
         <v>3.5 Interference immunity of sensor cable inputs (TL 81000, chapter "Pulse")</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8668,7 +8673,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8705,7 +8710,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -8779,7 +8784,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -8849,7 +8854,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -8923,7 +8928,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -8960,7 +8965,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9034,7 +9039,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -9108,7 +9113,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -9145,7 +9150,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -9252,7 +9257,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -9289,7 +9294,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -9326,7 +9331,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -9363,7 +9368,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -9400,7 +9405,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -9437,7 +9442,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="52" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>3.6 Emission of interference (TL 81000, chapter "Emission of interference")</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -9581,7 +9586,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -9655,7 +9660,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -9692,7 +9697,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -9729,7 +9734,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -9766,7 +9771,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -9803,7 +9808,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -9840,7 +9845,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -9877,7 +9882,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -9914,7 +9919,7 @@
         <v>3.7 Irradiated interference (TL 81000, chapter "Immunity")</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="65" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>3.8 ESD (electrostatic discharge, TL 81000, chapter "ESD")</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>3.8 ESD (electrostatic discharge, TL 81000, chapter "ESD")</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="91" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" ht="65" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>3.9 Immunity to magnetic fields (TL 81000, chapter "Immunity - Magnetic field testing")</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="91" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -10099,7 +10104,7 @@
         <v>3.9 Immunity to magnetic fields (TL 81000, chapter "Immunity - Magnetic field testing")</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="91" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" ht="65" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>3.9 Immunity to magnetic fields (TL 81000, chapter "Immunity - Magnetic field testing")</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="117" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" ht="78" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>3.10 Interference immunity to mobile radio (TL 81000, chapter "Interference immunity - mobile radio testing")</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="117" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="78" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>3.10 Interference immunity to mobile radio (TL 81000, chapter "Interference immunity - mobile radio testing")</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="117" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="78" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -10247,7 +10252,7 @@
         <v>3.10 Interference immunity to mobile radio (TL 81000, chapter "Interference immunity - mobile radio testing")</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="117" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="78" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -10354,7 +10359,7 @@
         <v>4 High-voltage-specific EMC requirements</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -10391,7 +10396,7 @@
         <v>4 High-voltage-specific EMC requirements</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="52" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:16" ht="42" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -10428,7 +10433,7 @@
         <v>5 Supplementary EMC requirements</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="91" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" ht="52" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -10498,7 +10503,7 @@
         <v>5.1 Requirements for switched voltages and currents on external device cables</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="52" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" ht="39" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -10568,7 +10573,7 @@
         <v>5.2 Requirements for power PWM frequencies</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" ht="39" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -10749,7 +10754,7 @@
         <v>5.4 Quartz Frequencies</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -10786,7 +10791,7 @@
         <v>5.5 Ethernet Interface Requirements</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>5.5 Ethernet Interface Requirements</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -11041,7 +11046,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -11152,7 +11157,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -11189,7 +11194,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -11263,7 +11268,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -11300,7 +11305,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -11337,7 +11342,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -11374,7 +11379,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -11411,7 +11416,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -11448,7 +11453,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -11485,7 +11490,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -11522,7 +11527,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -11559,7 +11564,7 @@
         <v>7 Other applicable documents</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -11707,7 +11712,7 @@
         <v>8 Appendix</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -11744,7 +11749,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -11855,7 +11860,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -11892,7 +11897,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -11929,7 +11934,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -12003,7 +12008,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -12073,7 +12078,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -12110,7 +12115,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -12184,7 +12189,7 @@
         <v>8.1 Description of the EMC design concept</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -12587,7 +12592,7 @@
         <v>8.2 EMC test plan</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="39" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:16" ht="34" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -12624,7 +12629,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -12661,7 +12666,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -12698,7 +12703,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -12735,7 +12740,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -12805,7 +12810,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -12842,7 +12847,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -12879,7 +12884,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -12953,7 +12958,7 @@
         <v>8.3 EMC qualification report</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -13061,7 +13066,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="29JLcsqwFzLFI5UH60rjor4+fQ3c6CTqcF9hoQW5NyYuMi25e8sSKxdr0y/Zog0Qc6TsQMRZzL55HGNSaxmNOw==" saltValue="UHvQBCscAapgkjaAV7Rm1Q==" spinCount="100000" sheet="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WUzeUdXe2Lfrk+6tlWaLVCMcuSj3/EB8b2YX9DIwkBPJ+AEjuP8U4zNBJZeMgI8otTUCfHSO7rWQzJ8hgnVc2g==" saltValue="pBi9Ylr0tDMxdP3Zj+ZhZA==" spinCount="100000" sheet="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:P1"/>
   <conditionalFormatting sqref="L2:L173">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -20684,87 +20689,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10001</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemUpdatingEventHandlerForConceptSearch</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>2</Type>
-    <SequenceNumber>10001</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>10002</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>10003</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemAddedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10004</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>10005</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10003</Type>
-    <SequenceNumber>10006</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <d4e1cdc1e8884ad9a1abd3eeee348cd0 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d4e1cdc1e8884ad9a1abd3eeee348cd0>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <l812b064fc494a32beba07917f4feaa3 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l812b064fc494a32beba07917f4feaa3>
+    <TaxCatchAll xmlns="b07804b3-f8ec-425e-9508-9bee58886a91"/>
+    <o3d4a57d459c41b294c55908ed11bae8 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o3d4a57d459c41b294c55908ed11bae8>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cf713c62-fdf9-4ba1-a9c8-920b71b66035" ContentTypeId="0x01" PreviousValue="true"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C80AA822E007B845828241C78ED9DD28" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cc8428aea14c0e79786d092b6f3cfe2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b07804b3-f8ec-425e-9508-9bee58886a91" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1720a288a8d52e5f2c2a634485e8713" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20954,23 +20897,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cf713c62-fdf9-4ba1-a9c8-920b71b66035" ContentTypeId="0x01" PreviousValue="true"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <d4e1cdc1e8884ad9a1abd3eeee348cd0 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d4e1cdc1e8884ad9a1abd3eeee348cd0>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <l812b064fc494a32beba07917f4feaa3 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l812b064fc494a32beba07917f4feaa3>
-    <TaxCatchAll xmlns="b07804b3-f8ec-425e-9508-9bee58886a91"/>
-    <o3d4a57d459c41b294c55908ed11bae8 xmlns="b07804b3-f8ec-425e-9508-9bee58886a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o3d4a57d459c41b294c55908ed11bae8>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10001</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemUpdatingEventHandlerForConceptSearch</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>2</Type>
+    <SequenceNumber>10001</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>10002</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>10003</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemAddedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10004</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>10005</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10003</Type>
+    <SequenceNumber>10006</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20983,22 +20988,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E9B894-B620-4ECC-ADB4-10C8438D9858}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3389977B-142A-48E7-91B0-5953EEA6F520}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b07804b3-f8ec-425e-9508-9bee58886a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D26A11-A504-424D-8D99-860D167BDFD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE4E7A8-1AAC-4F49-A23F-E414D144C36B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21018,20 +21025,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D26A11-A504-424D-8D99-860D167BDFD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3389977B-142A-48E7-91B0-5953EEA6F520}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E9B894-B620-4ECC-ADB4-10C8438D9858}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b07804b3-f8ec-425e-9508-9bee58886a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
